--- a/results/MIC/Pyrazinamide.xlsx
+++ b/results/MIC/Pyrazinamide.xlsx
@@ -4658,7 +4658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,6 +4725,3431 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pncA_p.His51Arg</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7401979323664387</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pncA_p.Gln10Arg</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5553338838302384</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr135Pro</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3408316800235181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pncA_c.-11A&gt;G</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3092042225951331</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala146Glu</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2734299733723389</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu4Ser</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2711928116990937</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pncA_p.Val139Ala</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2584998776099074</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu120Pro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2578238306667929</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pncA_p.Glu127_Asp129del</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2546840632236119</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pncA_p.Gln10Pro</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2126077640671366</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pncA_p.Val21Gly</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2073746017359436</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.003298245614035</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp49Asn</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2070437318973458</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr76Pro</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.20162528045251</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pncA_p.His57Leu</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1966575275145821</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu116Arg</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1904000668780058</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala146Val</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1838123391577164</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu85Pro</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1804893413333404</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pncA_p.Phe58Leu</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1767725056941365</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pncA_p.Lys48Thr</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1734126211860404</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.003298245614035</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pncA_p.Pro54Leu</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1680196456624406</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pncA_p.Arg140Pro</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1637917734320886</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu4Trp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1637536136862723</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pncA_p.Val131Gly</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1630366484090838</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0061639344262295</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>pncA_p.Val180Gly</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1627830400961229</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly97Ser</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1622709813635866</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0121290322580645</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>pncA_p.Val180Phe</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1573206640079975</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0146875</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp8Glu</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.156313351584234</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>pncA_p.Val155Gly</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1504996510760432</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>pncA_p.His57Tyr</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1499962499634941</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>pncA_p.His71Pro</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1493632457727778</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>pncA_p.Trp68Arg</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1482678627962772</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>pncA_p.Ser67Pro</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1467895958351764</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>pncA_p.Gln141Pro</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1447660413244666</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>pncA_p.Cys72Arg</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1314654222094528</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.003298245614035</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp12Gly</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1305042386893533</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0427272727272727</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>pncA_c.-11A&gt;C</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1264722414882288</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0061639344262295</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp63Ala</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1245636924673725</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0561194029850746</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu159Arg</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1234684060449167</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.003298245614035</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>pncA_p.Val7Phe</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1218182526493658</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>pncA_p.His71Arg</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1186179568488901</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>pncA_p.Val9Gly</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1172665602542552</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>pncA_p.Pro62Arg</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1169524857916008</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>pncA_p.Trp119Gly</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1162135160630921</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0146875</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>pncA_p.Val93Leu</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1148333537085693</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0731111111111111</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>pncA_p.Ile90Thr</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.1122777361283645</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1023291139240506</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly97Asp</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1115357651415677</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.07468493150684929</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp12Ala</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.109509472505868</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1044444444444444</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>pncA_p.Ser164Pro</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1092517385674742</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0731111111111111</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>pncA_c.-16_-11delAACGTAinsGGCAGTT</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1073879630692808</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0939999999999999</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>pncA_p.His57Arg</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1071454206378762</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0725142857142857</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>pncA_p.Met175Arg</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.10712198535642</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp136Tyr</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1070395192238871</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>pncA_p.Phe58Cys</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1070249045323566</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr168Pro</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.106936482501673</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr160Lys</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1069318685755271</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala134Val</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1063810268601209</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>pncA_p.Trp119Arg</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.106300856709779</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.003298245614035</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>pncA_p.Met175Thr</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1060742629216289</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>pncA_p.His51Gln</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1060656590557427</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.003298245614035</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu85Arg</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.1059915481918343</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala171Glu</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1056503693992251</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly108Glu</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1055894161650293</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr100Pro</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.1046548070586065</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>pncA_p.Lys96Glu</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.1046098829826613</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0663529411764705</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr34Asp</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1043109730438047</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>pncA_c.-10delT</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1043066470885972</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>pncA_p.Gln10His</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1041970207731953</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.1033999999999999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu120Arg</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1040430960957454</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.1023291139240506</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp63Gly</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.1023179303736516</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>pncA_p.Met175Val</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1023179303736515</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0061639344262295</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp8Gly</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1017006666995022</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0061639344262295</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>pncA_p.Val163Ala</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0975856916015745</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.003298245614035</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr160Pro</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0960201135292706</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala46Glu</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0945860309589124</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.1945581395348837</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>pncA_p.Val93Gly</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0916827242046062</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.1540240963855421</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>pncA_p.Ser66Pro</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.09109098087125959</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0202461538461538</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>pncA_p.His57Asp</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0894452400554509</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.003298245614035</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>panD_c.-1937C&gt;T</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0894452400554509</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.003298245614035</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr103Cys</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0859542471265316</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.1589047619047619</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>clpC1_p.Met734Ile</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0840712462868687</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.2790315789473683</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly97Cys</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0825582336394227</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.2112359550561797</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala46Val</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.07971770332279721</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.2272527472527472</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp136Gly</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0765546984808996</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.2493043478260869</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>pncA_p.Val130Met</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0746570892385665</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.2668387096774193</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly78Val</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0709115925344488</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.2954285714285714</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>pncA_p.Pro62Leu</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0665601105633956</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.405040650406504</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr142Ala</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0635425336155209</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.400655737704918</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>pncA_p.Phe94Leu</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0633402019497907</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.3501284403669725</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.584</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>pncA_p.Val125Phe</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0628096077771029</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.3048155339805825</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>pncA_p.Ile133Thr</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0626169765687245</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.3048155339805825</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>pncA_p.Met175Ile</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0583511405213355</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.3355887850467289</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala102Pro</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0560137942714453</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.3355887850467289</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp8Ala</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.0548001660725749</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.4444768211920529</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu19Pro</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0530107684983586</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.4428724832214765</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr142Pro</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0527791042956681</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.4407837837837837</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>pncA_p.His43Pro</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0491775455227377</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.4185401459854014</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>clpC1_p.Pro766Leu</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0488650480239177</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.3808620689655172</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr135Ala</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.0476881810404112</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>pncA_p.Arg2Trp</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.0451793268871306</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.400655737704918</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>pncA_p.Trp68Leu</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0445585103506761</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.4407837837837837</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp12Asn</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0441830684025304</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.4185401459854014</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu182Phe</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.0419289522601607</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.4063225806451613</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>pncA_p.Ser67Trp</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.0407334497561728</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.4463558282208589</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly105Asp</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.0406310364265885</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.4407837837837837</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly24Asp</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0406236773420499</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.4463558282208589</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr103His</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0399435551336531</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.4407837837837837</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>pncA_p.Phe94Tyr</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.0369619653988237</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.4407837837837837</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr76Ile</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.0366671132172331</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.4185401459854014</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr167Ile</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.030180760969157</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.4185401459854014</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp129Gly</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0292129768478755</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.4463558282208589</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu116Pro</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0273865299199609</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.4463558282208589</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr47Ala</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0248882907013002</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.4463558282208589</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>pncA_p.Phe81Val</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0246395046356372</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.4463558282208589</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>clpC1_p.Pro796Leu</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.0184089602812356</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.4185401459854014</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>clpC1_p.Gln784Pro</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0184089602812356</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.4185401459854014</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>clpC1_p.Phe595Cys</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.0164322165730381</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.4463558282208589</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr160Ala</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0154738547862407</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4733176470588235</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>pncA_c.-10T&gt;C</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0119507770080074</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.4638083832335329</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly78Ser</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.0110916792775168</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.4539512195121951</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly105Ser</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.0108063849533317</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.4733176470588235</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>pncA_p.Cys14Gly</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.0086971009013507</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.4802173913043478</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>pncA_p.Arg2Leu</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.008479303300531199</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.4769039548022599</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr100Ile</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.0078375377689574</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.4802173913043478</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>clpC1_p.Ala181Ser</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.0006279398033558</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.4802173913043478</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.517</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr41Cys</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.0002534185612865</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.4928648648648648</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.3133333333333333</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>pncA_p.Val45Met</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.0002067938474312</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.282</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>clpC1_p.Leu273Val</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.0003504493246577</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.496279569892473</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.282</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala171Gly</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-0.0020556092565139</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.4802173913043478</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.6266666666666667</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu159Val</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-0.0028236080474511</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.4769039548022599</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>pncA_p.Pro69Ser</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-0.005986233403155</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.4764827586206897</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr95Asp</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-0.009845187036140301</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.4733176470588235</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>pncA_p.His82Asp</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-0.0142518421544228</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.4586746987951807</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala36Pro</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-0.0200305803498484</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.4444768211920529</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>clpC1_p.Asp326Asn</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-0.0246004871091956</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.4185401459854014</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala26Val</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-0.0421704911361811</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.4185401459854014</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala102Val</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-0.0474218079474348</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.3903389830508474</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>pncA_p.Lys48Asn</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0.0681395453829836</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.300040404040404</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="G139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4739,7 +8164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4787,23 +8212,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pncA_c.3G&gt;A</t>
+          <t>pncA_p.His51Arg</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0927440803564783</v>
+        <v>0.7351480148611819</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0105581395348837</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.966</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -4812,23 +8237,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>clpC1_c.387C&gt;T</t>
+          <t>pncA_p.Gln10Arg</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0759387929946201</v>
+        <v>0.5525189494146812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.157</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2679624060150375</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.664</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -4837,23 +8262,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>clpC1_c.2302T&gt;C</t>
+          <t>pncA_p.Thr135Pro</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.064816979604309</v>
+        <v>0.3385657058253781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0149670329670329</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.991</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -4862,23 +8287,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>clpC1_c.2007C&gt;T</t>
+          <t>pncA_deletion</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0438786762377379</v>
+        <v>0.3141435815989909</v>
       </c>
       <c r="D5" t="n">
-        <v>0.368</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4375336787564767</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.345</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -4887,23 +8312,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>clpC1_c.2211G&gt;T</t>
+          <t>pncA_c.-11A&gt;G</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0251274648687104</v>
+        <v>0.3088737313780166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.368</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4375336787564767</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.221</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -4912,23 +8337,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pncA_c.225T&gt;C</t>
+          <t>pncA_p.Ala146Glu</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0241389619981833</v>
+        <v>0.2711192575891036</v>
       </c>
       <c r="D7" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4460150753768844</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.236</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -4937,23 +8362,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>clpC1_c.2370C&gt;T</t>
+          <t>pncA_p.Leu4Ser</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0371151998466226</v>
+        <v>0.2694024725471694</v>
       </c>
       <c r="D8" t="n">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.410502994011976</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.335</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -4962,23 +8387,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>clpC1_c.612C&gt;T</t>
+          <t>pncA_p.Leu120Pro</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0437379120249983</v>
+        <v>0.2663378585464717</v>
       </c>
       <c r="D9" t="n">
-        <v>0.292</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4017212121212121</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.404</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -4987,23 +8412,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>clpC1_c.1737G&gt;A</t>
+          <t>pncA_p.Val139Ala</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0556206100233929</v>
+        <v>0.2593508320477157</v>
       </c>
       <c r="D10" t="n">
-        <v>0.255</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3734516129032258</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.441</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -5012,25 +8437,4200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>pncA_p.Glu127_Asp129del</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2571946944143954</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pncA_p.Trp119fs</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2544645478679155</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pncA_p.Gln10Pro</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2113422617318542</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr103*</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2109366549353988</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pncA_p.Val21Gly</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2079116190203011</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp49Asn</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2041140778352214</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr76Pro</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2033456722651902</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pncA_p.His57Leu</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1971181521192876</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu116Arg</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1899387347568212</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pncA_p.Val131fs</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1889797792379282</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0054698795180722</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala146Val</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1841482940039356</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pncA_p.Ser65fs</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1834410488437453</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu85Pro</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1780795714442583</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pncA_p.Phe58Leu</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1769981701588408</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0054698795180722</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pncA_p.Lys48Thr</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1697436984035325</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0197391304347826</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>pncA_p.Pro54Leu</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1676349905100777</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0028734177215189</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr64*</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1643571559247219</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>pncA_p.Val180Gly</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1643215648541961</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr95fs</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1642476837894997</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly97Ser</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1641686023765713</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0028734177215189</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu4Trp</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1640431976479989</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>pncA_p.Arg140Pro</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1612463447610582</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>pncA_p.Val131Gly</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1611353563758748</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0028734177215189</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>pncA_p.Gln122*</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1594155686760361</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0054698795180722</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>pncA_p.Gln10*</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1587533524751018</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp8Glu</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.157684256576715</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp136fs</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1555788327779776</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0054698795180722</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>pncA_p.His57Tyr</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1505363425660314</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>pncA_p.Trp68Arg</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1498989126292085</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>pncA_p.Val155Gly</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1496814553786009</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>pncA_p.Ser67Pro</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1466999599441773</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>pncA_p.Gln141Pro</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1452553069047137</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>pncA_p.Arg140fs</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1429142782085397</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>pncA_p.His71Pro</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1427796952066066</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.008107142857142801</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp12Gly</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1358954115779754</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0362234042553191</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>pncA_p.Cys72Arg</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1326417092788192</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0105581395348837</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>pncA_c.-11A&gt;C</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.1260594721443289</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0128977272727272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu159Arg</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1249391922973881</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0028734177215189</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp63Ala</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.1244626815690706</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0573473684210526</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>pncA_p.His71Arg</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1232434386311155</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp86fs</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1228552126863636</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>pncA_p.Val7Phe</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1221320226369227</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>pncA_p.Trp119Gly</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.1176081775507182</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0128977272727272</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>pncA_p.Ser18*</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1175337211433783</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>pncA_p.Val9Gly</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1174822615060116</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp166fs</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.1174786720562218</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>pncA_p.Pro62Arg</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1172612622081967</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>pncA_p.His51fs</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1161376394973403</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>pncA_p.Asn112fs</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.115956432653996</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>pncA_p.Ile90Thr</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1139591042945478</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0608453608247422</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>pncA_p.Val180Phe</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1131810821707377</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1357757009345794</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>pncA_p.Val93Leu</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.1127967146360084</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.06717346938775511</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>pncA_p.Ser164Pro</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1112672391523612</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.07264</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp12Ala</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1100494275651131</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.09944761904761899</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly97Asp</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.1089056366181414</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0881553398058252</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>pncA_c.-16_-11delAACGTAinsGGCAGTT</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.10877918307577</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0362234042553191</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr99fs</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1077847693082525</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu156fs</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1076482840523053</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp136Tyr</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1075486634419414</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala134Val</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1074200047443421</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly108Glu</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.107228881733951</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>pncA_p.Ser74fs</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1071786743075355</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp49fs</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1069633579927545</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>pncA_p.Trp119Arg</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.1068080422183197</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0028734177215189</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>pncA_p.His51Gln</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.1067066318501264</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu85Arg</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1066423031945509</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0028734177215189</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr100Pro</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.1065593420797242</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>pncA_p.Met175Arg</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.1063260325255134</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>pncA_p.Phe58Cys</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.1062344831794927</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr160Lys</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1061502231816699</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr168Pro</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1061452528707829</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>pncA_p.Phe106fs</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1060600356260861</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>pncA_p.His57Arg</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1059314521099463</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0608453608247422</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>pncA_p.Met175Thr</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.1056520029570177</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala171Glu</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.1055986422710034</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>pncA_p.Val155fs</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.1051694851852155</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu120Arg</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.1049425736732</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0687878787878787</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>pncA_p.Gln10His</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.1048810371691079</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0960384615384615</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>pncA_p.Met175Val</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1047784428039534</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp63Gly</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1047784428039532</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr34Asp</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1046077211769424</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>pncA_p.Glu15*</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1043205980589467</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0028734177215189</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp8Gly</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.104192798661577</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0028734177215189</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>pncA_p.Lys96Glu</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.1034118018798712</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.08315841584158409</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala79fs</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.1029335138889109</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>pncA_c.-10delT</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.1029335138889108</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp63fs</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.1029097205427619</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>pncA_p.Val163Ala</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0981148846866863</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0028734177215189</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>clpC1_p.Met734Ile</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0981131916174874</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.230632</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>pncA_p.Val93Gly</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.09770088485153761</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.1395321100917431</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr160Pro</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.09763817576450699</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>pncA_p.Ser66Pro</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0937788037417885</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala46Glu</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0936993228779392</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.1866016949152542</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>pncA_c.3G&gt;A</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.0927440803564783</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0105581395348837</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly97Cys</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.0855180277482042</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.1862564102564102</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr103Cys</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.08329169603129891</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.1747699115044247</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala46Val</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0804215126436183</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.2214180327868852</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>pncA_p.Lys96fs</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0768963721367108</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.2214180327868852</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp136Gly</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.07616323065865779</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.2514461538461538</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>clpC1_c.387C&gt;T</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.0759387929946201</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.2679624060150375</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>pncA_p.Val130Met</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.07435892900385389</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.2481162790697674</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>pncA_p.Ser66*</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.07377841866514501</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.2233387096774193</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>pncA_p.Ile133Thr</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0662187854149122</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.244734375</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>pncA_p.Pro62Leu</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.06568752499016731</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.3944817073170731</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>pncA_p.His57Asp</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0648169796043095</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0149670329670329</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>panD_c.-1937C&gt;T</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.06481697960430929</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0149670329670329</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>clpC1_c.2302T&gt;C</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.064816979604309</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0149670329670329</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr142Ala</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.0637033663452181</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.3863229813664597</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>clpC1_p.Pro766Leu</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0636458055156589</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.3482739726027397</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly78Val</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0635905157999362</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.3231021897810219</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>pncA_p.Met175Ile</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.0628038752565892</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.3347841726618705</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>pncA_p.Val125Phe</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.0615369332194229</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.277820895522388</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>pncA_p.Phe94Leu</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.0608931215550546</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.3482739726027397</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr41*</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.0555480347905677</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>clpC1_p.Phe595Cys</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.0555480347905675</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu172fs</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.0549736118751157</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.4316936416184971</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp8Ala</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.0548890286066824</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.4152764705882352</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala102Pro</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.0537237453781783</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.3482739726027397</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr142Pro</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.0536114298606372</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.4137041420118343</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>pncA_p.His43Pro</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.0523434962469774</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.4061385542168674</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu19Pro</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.0522220155451523</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr135Ala</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.0514290867545922</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.3510933333333333</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>pncA_p.Arg2Trp</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.0513216676902461</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.3504026845637584</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>clpC1_c.2007C&gt;T</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.0438786762377379</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu182Phe</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.0437972517125014</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.3863229813664597</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>pncA_p.Trp68Leu</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0436412502801641</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp12Asn</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.0434834720973663</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>pncA_p.Ser67Trp</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0412264210794564</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.4377025641025641</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly24Asp</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0408488028531635</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr103His</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.040307900224646</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly105Asp</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.0396962079703307</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.4370402298850575</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr76Ile</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.0395769280319923</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.4107619047619048</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>pncA_p.Phe94Tyr</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.037853614398609</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr160Ala</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0303595895415788</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr167Ile</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.0301415603954219</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>pncA_p.Asp129Gly</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0282652015943155</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu116Pro</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.027462250397529</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>pncA_p.Glu181fs</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.0272829279177281</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>pncA_p.Phe81Val</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.026174894172629</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.44719</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>clpC1_c.2211G&gt;T</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0251274648687104</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr47Ala</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.0251026596184202</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.4424771573604061</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>pncA_c.225T&gt;C</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.0241389619981833</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.4460150753768844</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>clpC1_p.Gln784Pro</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.022951098042556</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.3482739726027397</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>clpC1_p.Pro796Leu</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.0229510980425559</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.3482739726027397</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly78Ser</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0121391762095126</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.4496346153846153</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>pncA_c.-10T&gt;C</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.0110622814165662</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.4496346153846153</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>pncA_p.Gly105Ser</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.010958968277348</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.4658341232227488</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>pncA_p.Arg2Leu</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.009215949018381599</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.4496346153846153</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>pncA_p.Thr100Ile</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.0078200546074322</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.4916589861751151</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>pncA_p.Cys14Gly</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.0070754395619608</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.4916589861751151</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>clpC1_p.Leu273Val</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.0020262890331165</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.51075</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.993125</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>clpC1_p.Ala181Ser</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.0008245459202912</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.5125155555555555</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.7718</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr41Cys</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.0007854074104762</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.4806431924882629</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.7718</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>pncA_p.Val45Met</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.0008053373662451</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.5079506726457399</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.7718</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>pncA_p.Tyr95Asp</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.0012106399337478</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.4979684684684684</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.7718</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala171Gly</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-0.0034627175317249</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>pncA_p.Leu159Val</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-0.0045584983059556</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.4979684684684684</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>pncA_p.Pro69Ser</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-0.0057798838180671</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.4815794392523365</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>clpC1_p.Asp326Asn</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-0.0064441519364294</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.4796981132075472</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>pncA_p.His82Asp</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-0.0176259079240781</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.4495490196078431</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala36Pro</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-0.0190140903581833</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.4375336787564767</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>clpC1_c.2370C&gt;T</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.0371151998466226</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.410502994011976</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala26Val</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-0.0427583405408968</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.3944817073170731</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>clpC1_c.612C&gt;T</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.0437379120249983</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.4017212121212121</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>pncA_p.Ala102Val</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.0489350919414008</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.3863229813664597</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>clpC1_c.1737G&gt;A</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-0.0556206100233929</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.3734516129032258</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>pncA_p.Lys48Asn</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-0.0706103483018454</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.2596742424242424</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
           <t>clpC1_c.2418C&gt;T</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
         <v>-0.0754863606075328</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D178" t="n">
         <v>0.133</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E178" t="n">
         <v>0.2396111111111111</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F178" t="n">
         <v>0.721</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G178" t="n">
         <v>1</v>
       </c>
     </row>
